--- a/docs/ValueSet-ValueSet-fetal-presentations.xlsx
+++ b/docs/ValueSet-ValueSet-fetal-presentations.xlsx
@@ -43,7 +43,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ValueSet - Fetal Presentations</t>
+    <t>Fetal Presentations</t>
   </si>
   <si>
     <t>Status</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T11:56:10-05:00</t>
+    <t>2024-02-27T09:44:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,7 +85,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This valueset contains codes to represent fetal presentations. This valueset is based on [PHVS_FetalPresentations_NCHS](https://phinvads.cdc.gov/vads/ViewValueSet.action?id=3C696B7B-BB33-4818-8996-1E3461E3F512)</t>
+    <t>This valueset contains codes to represent fetal presentations. This valueset is based on 
+[PHVS_FetalPresentations_NCHS](https://phinvads.cdc.gov/vads/ViewValueSet.action?id=3C696B7B-BB33-4818-8996-1E3461E3F512).  
+Only these codes are supported for exchange with NCHS.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -118,12 +120,6 @@
     <t>Breech presentation (finding)</t>
   </si>
   <si>
-    <t>163518000</t>
-  </si>
-  <si>
-    <t>On examination - fetal presentation unsure	Unknown fetal presentation (finding)</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -137,6 +133,12 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>unknown</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/CodeSystem/v3-NullFlavor</t>
@@ -408,7 +410,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -447,23 +449,15 @@
         <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -473,7 +467,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -493,25 +487,33 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>41</v>
       </c>
     </row>

--- a/docs/ValueSet-ValueSet-fetal-presentations.xlsx
+++ b/docs/ValueSet-ValueSet-fetal-presentations.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T09:44:15-05:00</t>
+    <t>2024-03-05T09:43:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ValueSet-fetal-presentations.xlsx
+++ b/docs/ValueSet-ValueSet-fetal-presentations.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T09:43:17-05:00</t>
+    <t>2024-05-01T14:05:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
